--- a/Api/docs/Documentation.xlsx
+++ b/Api/docs/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gin\Desktop\STPP\STPP\Api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF710C3-E6E0-4124-A5D2-8BB7120271E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948087C2-F258-4CF6-9C32-62C818D50F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{23CF3354-5BF4-41B8-BB89-4F59DFA971F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23CF3354-5BF4-41B8-BB89-4F59DFA971F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>/rooms/&lt;room_id&gt;</t>
   </si>
   <si>
-    <t>/users/bans/&lt;uban_id&gt;</t>
-  </si>
-  <si>
     <t>/users/&lt;user_id&gt;</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t>User new/edit</t>
-  </si>
-  <si>
-    <t>user=&lt;user_id&gt;&amp;banner=&lt;banner_id&gt;</t>
   </si>
   <si>
     <t>Room new</t>
@@ -423,6 +417,12 @@
   </si>
   <si>
     <t>Delete a post</t>
+  </si>
+  <si>
+    <t>user_id=&lt;user_id&gt;&amp;banner_id=&lt;banner_id&gt;</t>
+  </si>
+  <si>
+    <t>/users/bans/&lt;user_id&gt;</t>
   </si>
 </sst>
 </file>
@@ -1447,9 +1447,9 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="525" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="525" topLeftCell="A6" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
     <col min="2" max="2" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="6" bestFit="1" customWidth="1"/>
@@ -1489,10 +1489,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1525,10 +1525,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1553,15 +1553,15 @@
         <v>15</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>10</v>
@@ -1584,10 +1584,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
 }</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10">
@@ -1614,10 +1614,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="11">
@@ -1637,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26" t="str">
@@ -1671,10 +1671,10 @@
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
 }</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="11">
@@ -1698,15 +1698,15 @@
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>10</v>
@@ -1727,10 +1727,10 @@
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="11">
@@ -1748,10 +1748,10 @@
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="26" t="str">
         <f>Constants!B11</f>
@@ -1782,10 +1782,10 @@
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
 }</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11">
@@ -1808,10 +1808,10 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="43"/>
       <c r="I13" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
 }</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="10">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="11">
@@ -1882,22 +1882,22 @@
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="26" t="str">
         <f>Constants!B5</f>
@@ -1916,10 +1916,10 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
 }</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="10">
@@ -1942,22 +1942,22 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="10">
@@ -1965,10 +1965,10 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,7 +2016,7 @@
 }</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="11">
@@ -2024,15 +2024,15 @@
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>10</v>
@@ -2053,10 +2053,10 @@
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="11">
@@ -2074,10 +2074,10 @@
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>Constants!B19</f>
@@ -2110,10 +2110,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="38"/>
       <c r="H23" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2129,16 +2129,16 @@
 }</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10"/>
       <c r="G24" s="37"/>
       <c r="H24" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>Constants!B18</f>
@@ -2166,10 +2166,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="39"/>
       <c r="H25" s="48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2188,10 +2188,10 @@
       <c r="F26" s="12"/>
       <c r="G26" s="39"/>
       <c r="H26" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2205,10 +2205,10 @@
       <c r="F27" s="12"/>
       <c r="G27" s="39"/>
       <c r="H27" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2261,50 +2261,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="45">
         <v>0</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="45">
         <v>1</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="str">
         <f>"[
@@ -2346,23 +2346,23 @@
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="str">
         <f>"[
@@ -2382,23 +2382,23 @@
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>"[
@@ -2418,31 +2418,31 @@
     </row>
     <row r="12" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="str">
         <f>"[
@@ -2462,31 +2462,31 @@
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="str">
         <f>"[

--- a/Api/docs/Documentation.xlsx
+++ b/Api/docs/Documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gin\Desktop\STPP\STPP\Api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E4ED3-3FCA-445E-9EEA-832ACD7CB1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7F2EE-1B24-49AF-8623-FDC1D7037DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39163B5-1DF2-4439-9BD5-FE1E49ED2BF5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
   <si>
     <t>/users</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>/rooms/users</t>
-  </si>
-  <si>
-    <t>/rooms/users/&lt;user_id&gt;</t>
   </si>
   <si>
     <t>/rooms/bans</t>
@@ -381,9 +378,6 @@
     <t>Json!B24</t>
   </si>
   <si>
-    <t>Json!B23</t>
-  </si>
-  <si>
     <t>Json!B29</t>
   </si>
   <si>
@@ -516,6 +510,107 @@
   </si>
   <si>
     <t>Json!B31 or none, depends on guest permissions</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Get all users</t>
+  </si>
+  <si>
+    <t>Create a user</t>
+  </si>
+  <si>
+    <t>Get one user</t>
+  </si>
+  <si>
+    <t>Update a user</t>
+  </si>
+  <si>
+    <t>Delete a user</t>
+  </si>
+  <si>
+    <t>Get all bans of users</t>
+  </si>
+  <si>
+    <t>Get a user ban</t>
+  </si>
+  <si>
+    <t>Update a user ban</t>
+  </si>
+  <si>
+    <t>Delete a user ban</t>
+  </si>
+  <si>
+    <t>Get all rooms</t>
+  </si>
+  <si>
+    <t>Create a room</t>
+  </si>
+  <si>
+    <t>Get a single room</t>
+  </si>
+  <si>
+    <t>Update a room</t>
+  </si>
+  <si>
+    <t>Delete a room</t>
+  </si>
+  <si>
+    <t>Get all room bans</t>
+  </si>
+  <si>
+    <t>Create a room ban (ban a room)</t>
+  </si>
+  <si>
+    <t>Create a user ban (ban a user)</t>
+  </si>
+  <si>
+    <t>Get a room ban</t>
+  </si>
+  <si>
+    <t>Update a room ban</t>
+  </si>
+  <si>
+    <t>Delete a room ban</t>
+  </si>
+  <si>
+    <t>Get all rooms-users</t>
+  </si>
+  <si>
+    <t>Create a room user (add a user to a room)</t>
+  </si>
+  <si>
+    <t>Delete a room user (remove a user from a room)</t>
+  </si>
+  <si>
+    <t>Get all posts</t>
+  </si>
+  <si>
+    <t>Create a new post</t>
+  </si>
+  <si>
+    <t>Update a post</t>
+  </si>
+  <si>
+    <t>Get a post</t>
+  </si>
+  <si>
+    <t>Delete a post</t>
+  </si>
+  <si>
+    <t>Get a jwt token (login)</t>
+  </si>
+  <si>
+    <t>LoginResp</t>
+  </si>
+  <si>
+    <t>{
+    "token": &lt;Token&gt;
+}</t>
+  </si>
+  <si>
+    <t>Delete user by token</t>
   </si>
 </sst>
 </file>
@@ -560,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +676,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -589,9 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7249090C-1EBB-45B2-AF33-C1A7F40C912E}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,70 +1027,77 @@
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>68</v>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(ISBLANK(D2), 204, 200)</f>
+        <f>_xlfn.SWITCH(B2,"GET",200,"POST",IF(ISBLANK(D2),201,200),"PATCH",204,"DELETE",204)</f>
         <v>200</v>
       </c>
       <c r="H2" s="6" t="str">
         <f t="shared" ref="H2:H29" si="0">IF(ISBLANK(C2),"",422)</f>
         <v/>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>56</v>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E31" si="1">IF(ISBLANK(D3), 204, 200)</f>
-        <v>204</v>
+        <f t="shared" ref="E3:E31" si="1">_xlfn.SWITCH(B3,"GET",200,"POST",IF(ISBLANK(D3),201,200),"PATCH",204,"DELETE",204)</f>
+        <v>201</v>
       </c>
       <c r="F3" s="6">
         <v>409</v>
@@ -995,173 +1106,194 @@
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" s="1">
+        <f>_xlfn.SWITCH(B4,"GET",200,"POST",IF(ISBLANK(D4),201,200),"PATCH",204,"DELETE",204)</f>
+        <v>204</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
-      </c>
-      <c r="G4" s="6">
-        <v>404</v>
-      </c>
-      <c r="H4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="F5" s="6">
-        <v>409</v>
       </c>
       <c r="G5" s="6">
         <v>404</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>204</v>
+      </c>
+      <c r="F6" s="6">
+        <v>409</v>
       </c>
       <c r="G6" s="6">
         <v>404</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="G7" s="6">
+        <v>404</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="13"/>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="13"/>
+      <c r="K8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="G8" s="6">
-        <v>404</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>71</v>
+      <c r="C9" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G9" s="6">
         <v>404</v>
       </c>
-      <c r="H9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="6">
         <v>404</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
@@ -1170,106 +1302,121 @@
       <c r="G11" s="6">
         <v>404</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="G12" s="6">
+        <v>404</v>
+      </c>
+      <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="13"/>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="13"/>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G14" s="6">
-        <v>404</v>
-      </c>
-      <c r="H14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
       </c>
       <c r="G15" s="6">
         <v>404</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
@@ -1278,109 +1425,124 @@
       <c r="G16" s="6">
         <v>404</v>
       </c>
-      <c r="H16" s="6" t="str">
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="G17" s="6">
+        <v>404</v>
+      </c>
+      <c r="H17" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="G18" s="6">
-        <v>404</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>88</v>
+      <c r="C19" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G19" s="6">
         <v>404</v>
       </c>
-      <c r="H19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G20" s="6">
         <v>404</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
@@ -1389,88 +1551,98 @@
       <c r="G21" s="6">
         <v>404</v>
       </c>
-      <c r="H21" s="6" t="str">
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="G22" s="6">
+        <v>404</v>
+      </c>
+      <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="13"/>
+      <c r="K22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
+      <c r="K23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="G23" s="6">
-        <v>404</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>76</v>
+      <c r="C24" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G24" s="6">
         <v>404</v>
       </c>
-      <c r="H24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="13"/>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C25" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
         <v>204</v>
@@ -1478,25 +1650,28 @@
       <c r="G25" s="6">
         <v>404</v>
       </c>
-      <c r="H25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>14</v>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="13"/>
+      <c r="K25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>77</v>
+      <c r="C26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
@@ -1506,20 +1681,23 @@
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="13"/>
+      <c r="K26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>87</v>
+      <c r="C27" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G27" s="6">
         <v>404</v>
@@ -1528,18 +1706,21 @@
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>15</v>
+      <c r="I27" s="11"/>
+      <c r="J27" s="13"/>
+      <c r="K27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>78</v>
+      <c r="D28" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
@@ -1552,16 +1733,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="13"/>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>64</v>
+      <c r="C29" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
@@ -1574,15 +1758,18 @@
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="13"/>
+      <c r="K29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="8"/>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
         <v>204</v>
@@ -1590,21 +1777,24 @@
       <c r="G30" s="6">
         <v>404</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+      <c r="J30" s="13"/>
+      <c r="K30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>81</v>
+      <c r="C31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
@@ -1617,59 +1807,61 @@
         <f>IF(ISBLANK(C31),"",422)</f>
         <v>422</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13"/>
+      <c r="K31" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="J2:J31"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="I2:I31"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="Json!B3" display="Json!B3" xr:uid="{9C3A0D64-CDE1-4563-B465-4EA60E7CF344}"/>
-    <hyperlink ref="C5" location="Json!B4" display="Json!B4" xr:uid="{AE7E3210-1A5F-45A2-8AEB-F659691571AE}"/>
-    <hyperlink ref="C8" location="Json!B7" display="Json!B7" xr:uid="{E63BE234-1A0B-495B-88DB-30B883C81147}"/>
-    <hyperlink ref="C10" location="Json!B8" display="Json!B8" xr:uid="{ECD7DCD2-41D5-4B17-B769-0E7A0BCEB8A7}"/>
-    <hyperlink ref="C13" location="Json!B12" display="Json!B12" xr:uid="{13721CB6-6923-4DA0-923F-F9B14F4A9A25}"/>
-    <hyperlink ref="C15" location="Json!B12" display="Json!B12" xr:uid="{A7D03555-CEB5-4747-8395-9BC89477E974}"/>
-    <hyperlink ref="C18" location="Json!B16" display="Json!B16" xr:uid="{9B1075B8-9456-4848-9BDA-6F921BD2B25A}"/>
-    <hyperlink ref="C20" location="Json!B17" display="Json!B17" xr:uid="{EFBA732A-B5D9-433B-93EC-18561D2921C1}"/>
-    <hyperlink ref="C23" location="Json!B21" display="Json!B21" xr:uid="{08084D5E-C7AA-42FA-A37A-7E9062620F9B}"/>
+    <hyperlink ref="C6" location="Json!B4" display="Json!B4" xr:uid="{AE7E3210-1A5F-45A2-8AEB-F659691571AE}"/>
+    <hyperlink ref="C9" location="Json!B7" display="Json!B7" xr:uid="{E63BE234-1A0B-495B-88DB-30B883C81147}"/>
+    <hyperlink ref="C11" location="Json!B8" display="Json!B8" xr:uid="{ECD7DCD2-41D5-4B17-B769-0E7A0BCEB8A7}"/>
+    <hyperlink ref="C14" location="Json!B12" display="Json!B12" xr:uid="{13721CB6-6923-4DA0-923F-F9B14F4A9A25}"/>
+    <hyperlink ref="C16" location="Json!B12" display="Json!B12" xr:uid="{A7D03555-CEB5-4747-8395-9BC89477E974}"/>
+    <hyperlink ref="C19" location="Json!B16" display="Json!B16" xr:uid="{9B1075B8-9456-4848-9BDA-6F921BD2B25A}"/>
+    <hyperlink ref="C21" location="Json!B17" display="Json!B17" xr:uid="{EFBA732A-B5D9-433B-93EC-18561D2921C1}"/>
+    <hyperlink ref="C24" location="Json!B21" display="Json!B21" xr:uid="{08084D5E-C7AA-42FA-A37A-7E9062620F9B}"/>
     <hyperlink ref="C29" location="Json!B26" display="Json!B26" xr:uid="{079F65E8-F3F2-4286-B774-E4302E2A7211}"/>
     <hyperlink ref="C31" location="Json!B30" display="Json!B30" xr:uid="{FE08C907-DEAF-49B8-BE8C-E3DE6B760FEB}"/>
     <hyperlink ref="D2" location="Json!B6" display="Json!B6" xr:uid="{6EF39F81-D487-4191-8CF5-6C4DD48B0D79}"/>
-    <hyperlink ref="D4" location="Json!B5" display="Json!B5" xr:uid="{D865B88C-25C0-450E-9736-85FBFE492FAA}"/>
-    <hyperlink ref="D7" location="Json!B11" display="Json!B11" xr:uid="{736317BF-5289-47DE-9592-3FB1B425C73D}"/>
-    <hyperlink ref="D9" location="Json!B10" display="Json!B10" xr:uid="{BE699C50-D0D1-4F90-8CC6-DC9DE84043F9}"/>
-    <hyperlink ref="D12" location="Json!B15" display="Json!B15" xr:uid="{B0126E51-39C2-4EA3-9068-48DDAE389F2F}"/>
-    <hyperlink ref="D14" location="Json!B14" display="Json!B14" xr:uid="{F676C01F-603D-4CCA-8BC9-40CACA6AA5C7}"/>
-    <hyperlink ref="D17" location="Json!B20" display="Json!B20" xr:uid="{7E29707F-C6DD-4DF8-939B-5B825557B0EA}"/>
-    <hyperlink ref="D22" location="Json!B24" display="Json!B24" xr:uid="{9280EFDE-04E2-4507-9BAF-44FD8DC8913B}"/>
-    <hyperlink ref="D24" location="Json!B23" display="Json!B23" xr:uid="{3DAC2528-5925-4DE5-8570-220F66DBA1DF}"/>
+    <hyperlink ref="D5" location="Json!B5" display="Json!B5" xr:uid="{D865B88C-25C0-450E-9736-85FBFE492FAA}"/>
+    <hyperlink ref="D8" location="Json!B11" display="Json!B11" xr:uid="{736317BF-5289-47DE-9592-3FB1B425C73D}"/>
+    <hyperlink ref="D10" location="Json!B10" display="Json!B10" xr:uid="{BE699C50-D0D1-4F90-8CC6-DC9DE84043F9}"/>
+    <hyperlink ref="D13" location="Json!B15" display="Json!B15" xr:uid="{B0126E51-39C2-4EA3-9068-48DDAE389F2F}"/>
+    <hyperlink ref="D15" location="Json!B14" display="Json!B14" xr:uid="{F676C01F-603D-4CCA-8BC9-40CACA6AA5C7}"/>
+    <hyperlink ref="D18" location="Json!B20" display="Json!B20" xr:uid="{7E29707F-C6DD-4DF8-939B-5B825557B0EA}"/>
+    <hyperlink ref="D23" location="Json!B24" display="Json!B24" xr:uid="{9280EFDE-04E2-4507-9BAF-44FD8DC8913B}"/>
     <hyperlink ref="D26" location="Json!B29" display="Json!B29" xr:uid="{13E31044-A710-4B5D-B74B-0A11DE735F20}"/>
     <hyperlink ref="D28" location="Json!B28" display="Json!B28" xr:uid="{542512D6-DA19-417B-99AE-A775C1349817}"/>
     <hyperlink ref="D31" location="Json!B31" display="Json!B31" xr:uid="{6CE118B2-851D-46E7-89A9-5CA5DFE1D284}"/>
-    <hyperlink ref="C7" location="Json!B9" display="Json!B9" xr:uid="{31ACC9DD-FF55-4427-AD8B-B56FB5340B57}"/>
-    <hyperlink ref="C12" location="Json!B13" display="Json!B13" xr:uid="{FD6B8B41-7203-4801-8A6D-0BA2012019E3}"/>
-    <hyperlink ref="C17" location="Json!B18" display="Json!B18" xr:uid="{624BF20F-F006-47E1-89AB-878F3BD7D661}"/>
-    <hyperlink ref="C22" location="Json!B22" display="Json!B22" xr:uid="{9DB20142-4E94-4312-B6EB-AF5AE866EF46}"/>
+    <hyperlink ref="C8" location="Json!B9" display="Json!B9" xr:uid="{31ACC9DD-FF55-4427-AD8B-B56FB5340B57}"/>
+    <hyperlink ref="C13" location="Json!B13" display="Json!B13" xr:uid="{FD6B8B41-7203-4801-8A6D-0BA2012019E3}"/>
+    <hyperlink ref="C18" location="Json!B18" display="Json!B18" xr:uid="{624BF20F-F006-47E1-89AB-878F3BD7D661}"/>
+    <hyperlink ref="C23" location="Json!B22" display="Json!B22" xr:uid="{9DB20142-4E94-4312-B6EB-AF5AE866EF46}"/>
     <hyperlink ref="C26" location="Json!B27" display="Json!B27" xr:uid="{AF2CC457-4A73-4641-999B-1E50822D7CD2}"/>
     <hyperlink ref="C27" location="Json!B25" display="Json!B25" xr:uid="{B7D30C43-E941-4595-875C-98FD678D979A}"/>
-    <hyperlink ref="D19" location="Json!B19" display="Json!B19" xr:uid="{E951952C-A5EE-4A50-91BA-A5CDD9473C3B}"/>
+    <hyperlink ref="D20" location="Json!B19" display="Json!B19" xr:uid="{E951952C-A5EE-4A50-91BA-A5CDD9473C3B}"/>
     <hyperlink ref="J2:J31" location="Json!B31" display="Json!B31 or none, depends on guest permissions" xr:uid="{DB881711-2126-4F36-AEB2-91BCDCCAECA8}"/>
+    <hyperlink ref="C25" location="Json!B21" display="Json!B21" xr:uid="{54D0A53C-6517-469E-9379-51208EEBA7F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1678,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB950346-C0E9-4754-BF7D-07A73851B51F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,280 +1885,288 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>80</v>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Api/docs/Documentation.xlsx
+++ b/Api/docs/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gin\Desktop\STPP\STPP\Api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705AF8F-5455-4B75-99AE-330C3AF7706B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B86E2-999B-4EBB-BCF1-78DB2149AE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39163B5-1DF2-4439-9BD5-FE1E49ED2BF5}"/>
   </bookViews>
@@ -847,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -862,22 +862,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -887,49 +882,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,81 +928,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1022,9 +1049,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1343,19 +1367,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42172AC8-0711-4DA1-AFED-B15D3C8C5056}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L21:L22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
@@ -1365,844 +1389,844 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="27">
+        <v>200</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="5" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="5">
+        <v>200</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="4">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>201</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="10">
+        <v>204</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="7" t="s">
+      <c r="J6" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>204</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>204</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>200</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>200</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>204</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12">
+        <v>204</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>200</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>200</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>204</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="10">
+        <v>204</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>200</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>200</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I19" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="12" t="s">
+      <c r="J19" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>204</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="I21" s="28">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="16">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="43" t="s">
+      <c r="J21" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="16">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="13">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="9">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>200</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I23" s="10">
+        <v>201</v>
+      </c>
+      <c r="J23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="13">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="40" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="5" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" s="5">
+        <v>200</v>
+      </c>
+      <c r="J24" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="4">
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5">
+        <v>204</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="12">
+        <v>204</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="16">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="J27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="28">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="48" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="20">
+        <v>201</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" s="5">
+        <v>200</v>
+      </c>
+      <c r="J29" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="4">
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="22">
+        <v>204</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="24">
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="29" t="s">
+      <c r="J31" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>200</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="5">
+        <v>204</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="31">
+      <c r="I34" s="12">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="60" t="s">
+      <c r="J34" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="32" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" s="34">
+      <c r="I35" s="18">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="16">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="24" t="s">
+      <c r="J35" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="28">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="48" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="20">
+        <v>201</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" s="5">
+        <v>200</v>
+      </c>
+      <c r="J37" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="4">
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="5">
+        <v>204</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="10">
+        <v>204</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="5" t="s">
+      <c r="J40" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>201</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I42" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="12" t="s">
+      <c r="J42" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="I43" s="28">
         <v>204</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="J43" s="34" t="s">
         <v>100</v>
-      </c>
-      <c r="J42" s="9">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="37">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="D9:G11"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:G15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="D10:G12"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:G16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G42"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G38"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="C34:G35"/>
-    <mergeCell ref="B5:G7"/>
-    <mergeCell ref="A2:G4"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="D28:G29"/>
-    <mergeCell ref="A21:G22"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G43"/>
+    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="C35:G36"/>
+    <mergeCell ref="B6:G8"/>
+    <mergeCell ref="A3:G5"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B27:B43"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G21"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="A22:G23"/>
+    <mergeCell ref="B24:G26"/>
+    <mergeCell ref="C27:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2213,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB950346-C0E9-4754-BF7D-07A73851B51F}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Api/docs/Documentation.xlsx
+++ b/Api/docs/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gin\Desktop\STPP\STPP\Api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B86E2-999B-4EBB-BCF1-78DB2149AE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121191D2-B793-491D-860E-A1B3756F2B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39163B5-1DF2-4439-9BD5-FE1E49ED2BF5}"/>
   </bookViews>
@@ -1365,10 +1365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42172AC8-0711-4DA1-AFED-B15D3C8C5056}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
